--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
@@ -737,7 +737,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order　実施されるプラン、提案、依頼</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
@@ -771,7 +771,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event　参照されるイベントの一部分</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
@@ -794,7 +794,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>登録|予備|ファイナル|修正 + / registered | preliminary | final | amended +</t>
+    <t>結果の状態。【詳細参照】</t>
   </si>
   <si>
     <t>The status of the result value.
@@ -833,7 +833,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
+    <t>このObservationを分類するコード。【詳細参照】</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
@@ -926,8 +926,7 @@
     <t>laboratory</t>
   </si>
   <si>
-    <t>A code that classifies the general type of observation being made.
-このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード。</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
@@ -1101,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)　observation のタイプ（コードまたはタイプ）</t>
+    <t>このObservationの対象を特定するコード。【詳細参照】</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".
@@ -1220,7 +1219,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about　観察対象者</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
@@ -1253,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
@@ -1278,7 +1277,7 @@
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made　このobservationが行われるヘルスケアイベント</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
@@ -1316,7 +1315,7 @@
 PeriodTiming</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation　臨床的に関連する時刻または時間</t>
+    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
@@ -1351,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available　このバージョンが利用可能となった日時</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
@@ -1378,7 +1377,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation　observationに責任をもつ者</t>
+    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".
@@ -1468,8 +1467,7 @@
     <t>検査結果が「数値」の場合、値、単位を設定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)【詳細参照】</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.
-結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+    <t>取得された結果。</t>
   </si>
   <si>
     <t>valueQuantity.value　：結果値（数値）を定義。　SS-MIX2／HL7 V2.5：OBX-5(結果値)
@@ -1511,7 +1509,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing　結果が欠損値である理由</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
@@ -1591,7 +1589,7 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation　結果に対するコメント</t>
+    <t>このObservationに関するコメント。【詳細参照】</t>
   </si>
   <si>
     <t>Comments about the observation or the results.
@@ -1683,7 +1681,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+    <t>対象となった身体部位。</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
@@ -1754,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation　観察（観測、検査）に使われた検体材料</t>
+    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.
@@ -1784,7 +1782,7 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device　測定機器</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>The device used to generate the observation data.
@@ -1814,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation　解釈のためのガイドを与える</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.
@@ -2000,15 +1998,13 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group　observationグループに属する関連リソース</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-この検査が含まれるグループを示す。</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>グループ検査の場合、この検査に含まれる複数の検査結果項目を示す。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】この1検査結果で複数の検査結果項目を含むような場合、value[x]には結果値を設定せず、それら検査結果項目を示すJP_Observation_LabResultへのReferenceをhasMemberに設定する。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2024,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
@@ -2040,7 +2036,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
@@ -737,7 +737,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
@@ -771,7 +771,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
@@ -794,7 +794,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態。【詳細参照】</t>
+    <t>結果の状態【詳細参照】</t>
   </si>
   <si>
     <t>The status of the result value.
@@ -833,7 +833,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>このObservationを分類するコード。【詳細参照】</t>
+    <t>このObservationを分類するコード【詳細参照】</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
@@ -926,7 +926,7 @@
     <t>laboratory</t>
   </si>
   <si>
-    <t>このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード。【詳細参照】</t>
+    <t>このObservationの対象を特定するコード【詳細参照】</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".
@@ -1219,7 +1219,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
@@ -1277,7 +1277,7 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
@@ -1315,7 +1315,7 @@
 PeriodTiming</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
+    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
@@ -1350,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
@@ -1377,7 +1377,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
+    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".
@@ -1467,7 +1467,7 @@
     <t>検査結果が「数値」の場合、値、単位を設定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)【詳細参照】</t>
   </si>
   <si>
-    <t>取得された結果。</t>
+    <t>取得された結果</t>
   </si>
   <si>
     <t>valueQuantity.value　：結果値（数値）を定義。　SS-MIX2／HL7 V2.5：OBX-5(結果値)
@@ -1509,7 +1509,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
@@ -1589,7 +1589,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント。【詳細参照】</t>
+    <t>このObservationに関するコメント【詳細参照】</t>
   </si>
   <si>
     <t>Comments about the observation or the results.
@@ -1681,7 +1681,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>対象となった身体部位。</t>
+    <t>対象となった身体部位</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
+    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.
@@ -1782,7 +1782,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>The device used to generate the observation data.
@@ -1812,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.
@@ -1998,7 +1998,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
   </si>
   <si>
     <t>グループ検査の場合、この検査に含まれる複数の検査結果項目を示す。</t>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
@@ -2036,7 +2036,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
@@ -6737,7 +6737,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-observation-labresult.xlsx
@@ -1410,7 +1410,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>同じ検査項目でも、システム（施設）により、使うデータ型が異なる可能性あり。【詳細参照】</t>
+    <t>同じ検査項目でも、システム（施設）により、使うデータ型が異なる可能性あり【詳細参照】</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.
